--- a/Documentação/Planilhas/Relatorios_LN.xlsx
+++ b/Documentação/Planilhas/Relatorios_LN.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="248">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="249">
   <si>
     <t>/Relatorios/Contas Pagar/RelatorioPagamento</t>
   </si>
@@ -729,9 +726,6 @@
     <t>Tabelas</t>
   </si>
   <si>
-    <t>Diretório Reporting</t>
-  </si>
-  <si>
     <t>tfacp200</t>
   </si>
   <si>
@@ -759,7 +753,16 @@
     <t>\Nova\Documentação\Tabelas_LN\tfacp200-Itens em Aberto (Faturas Compra e Pagtos)</t>
   </si>
   <si>
-    <t>Diretorio Definição Tabela</t>
+    <t>\Nova\Documentação\Tabelas_LN\tfacp600-A-P de doctos relacionado pagto itens em aberto</t>
+  </si>
+  <si>
+    <t>Diretorio do arquivo de Definição da Tabela</t>
+  </si>
+  <si>
+    <t>Diretório no Reporting</t>
+  </si>
+  <si>
+    <t>Nome do Relatório</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1002,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:D148" totalsRowShown="0" tableBorderDxfId="4">
   <autoFilter ref="A2:D148"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Diretório Reporting" dataDxfId="3"/>
-    <tableColumn id="2" name="Name" dataDxfId="2"/>
+    <tableColumn id="1" name="Diretório no Reporting" dataDxfId="3"/>
+    <tableColumn id="2" name="Nome do Relatório" dataDxfId="2"/>
     <tableColumn id="3" name="Tabelas" dataDxfId="1"/>
-    <tableColumn id="4" name="Diretorio Definição Tabela" dataDxfId="0"/>
+    <tableColumn id="4" name="Diretorio do arquivo de Definição da Tabela" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1297,1245 +1300,1247 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="72.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>239</v>
+      <c r="C4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentação/Planilhas/Relatorios_LN.xlsx
+++ b/Documentação/Planilhas/Relatorios_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="287">
   <si>
     <t>/Relatorios/Contas Pagar/RelatorioPagamento</t>
   </si>
@@ -24,9 +24,6 @@
     <t>RelatorioPagamento</t>
   </si>
   <si>
-    <t>/Relatorios/Transporte/RelatorioTransporteDocaConsolidado</t>
-  </si>
-  <si>
     <t>RelatorioTransporteDocaConsolidado</t>
   </si>
   <si>
@@ -763,13 +760,130 @@
   </si>
   <si>
     <t>Nome do Relatório</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tfcmg103-Pagamentos criados</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tccom100_Parceiros de Negocios</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tfcmg001-Relacoes bancarias</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tfcmg011-Agencias Bancarias</t>
+  </si>
+  <si>
+    <t>tfacp002</t>
+  </si>
+  <si>
+    <t>tflcb230</t>
+  </si>
+  <si>
+    <t>tfcmg101</t>
+  </si>
+  <si>
+    <t>tccom130</t>
+  </si>
+  <si>
+    <t>tdrec940</t>
+  </si>
+  <si>
+    <t>tdrec952</t>
+  </si>
+  <si>
+    <t>tdrec947</t>
+  </si>
+  <si>
+    <t>tcmcs966</t>
+  </si>
+  <si>
+    <t>tfacp201</t>
+  </si>
+  <si>
+    <t>tccom125</t>
+  </si>
+  <si>
+    <t>tflcb231</t>
+  </si>
+  <si>
+    <t>znacp005</t>
+  </si>
+  <si>
+    <t>tdpur400</t>
+  </si>
+  <si>
+    <t>tdpur094</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tflcb230-Saidas EBF - Pagamento</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tfcmg101-Aconselhamento Pagto - Notas Promissorias Ctas Pagar</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tccom130-Endereco</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tdrec940-Docto Receb Fiscal</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tdrec952-Lancamentos Contabeis</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tfacp201-Agendas de Pagamento</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tdpur400-Ordens de Compra</t>
+  </si>
+  <si>
+    <t>zncmg011</t>
+  </si>
+  <si>
+    <t>znsls412</t>
+  </si>
+  <si>
+    <t>znint002</t>
+  </si>
+  <si>
+    <t>znsls402</t>
+  </si>
+  <si>
+    <t>zncmg007</t>
+  </si>
+  <si>
+    <t>znsls400</t>
+  </si>
+  <si>
+    <t>tcmcs066</t>
+  </si>
+  <si>
+    <t>znsls401</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\znsls412-Controle de Faturamento</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\znint002-Cia por Unid Negocio</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\znsls402-Pedido Vdas Site Pgto</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\znsls400-Pedido Vdas Cabecalho</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\znsls401-Pedido Vdas Linha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,6 +914,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -809,7 +929,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -845,6 +965,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -858,19 +989,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -999,8 +1130,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:D148" totalsRowShown="0" tableBorderDxfId="4">
-  <autoFilter ref="A2:D148"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:D182" totalsRowShown="0" tableBorderDxfId="4">
+  <autoFilter ref="A2:D182"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Diretório no Reporting" dataDxfId="3"/>
     <tableColumn id="2" name="Nome do Relatório" dataDxfId="2"/>
@@ -1298,1249 +1429,2037 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D148"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>246</v>
+      <c r="C2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>244</v>
+      <c r="C3" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>245</v>
+      <c r="C4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>240</v>
+      <c r="C7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="C8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>0</v>
+      <c r="D10" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>0</v>
+      <c r="A12" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="7" t="s">
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
+      <c r="B182" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C13" r:id="rId8"/>
+    <hyperlink ref="C15" r:id="rId9"/>
+    <hyperlink ref="C16" r:id="rId10"/>
+    <hyperlink ref="C17" r:id="rId11"/>
+    <hyperlink ref="C18" r:id="rId12"/>
+    <hyperlink ref="C22" r:id="rId13"/>
+    <hyperlink ref="C24" r:id="rId14"/>
+    <hyperlink ref="C21" r:id="rId15"/>
+    <hyperlink ref="C27" r:id="rId16"/>
+    <hyperlink ref="C29" r:id="rId17"/>
+    <hyperlink ref="C30" r:id="rId18"/>
+    <hyperlink ref="C31" r:id="rId19"/>
+    <hyperlink ref="C32" r:id="rId20"/>
+    <hyperlink ref="C14" r:id="rId21"/>
+    <hyperlink ref="C33" r:id="rId22"/>
+    <hyperlink ref="C35" r:id="rId23"/>
+    <hyperlink ref="C36" r:id="rId24"/>
+    <hyperlink ref="C40" r:id="rId25"/>
+    <hyperlink ref="C41" r:id="rId26"/>
+    <hyperlink ref="C42" r:id="rId27"/>
+    <hyperlink ref="C44" r:id="rId28"/>
+    <hyperlink ref="C46" r:id="rId29"/>
+    <hyperlink ref="C47" r:id="rId30"/>
+    <hyperlink ref="C49" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2549,7 +3468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Documentação/Planilhas/Relatorios_LN.xlsx
+++ b/Documentação/Planilhas/Relatorios_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="288">
   <si>
     <t>/Relatorios/Contas Pagar/RelatorioPagamento</t>
   </si>
@@ -877,6 +877,9 @@
   </si>
   <si>
     <t>\Nova\Documentação\Tabelas_LN\znsls401-Pedido Vdas Linha</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tfcmg109-Lotes de pagamento</t>
   </si>
 </sst>
 </file>
@@ -1432,8 +1435,8 @@
   <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1492,17 +1495,19 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3455,11 +3460,12 @@
     <hyperlink ref="C46" r:id="rId29"/>
     <hyperlink ref="C47" r:id="rId30"/>
     <hyperlink ref="C49" r:id="rId31"/>
+    <hyperlink ref="C5" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentação/Planilhas/Relatorios_LN.xlsx
+++ b/Documentação/Planilhas/Relatorios_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="299">
   <si>
     <t>/Relatorios/Contas Pagar/RelatorioPagamento</t>
   </si>
@@ -880,6 +880,39 @@
   </si>
   <si>
     <t>\Nova\Documentação\Tabelas_LN\tfcmg109-Lotes de pagamento</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\Métodos de pagamento/recebimento</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tfacp002 - Razoes da espera</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tdrec947-Dados de origem por linha rec fiscal</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tcmcs966-Tipo de documento fiscal</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tccom125-Ctas bancarias por parceiro neg credor</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tflcb231-Entradas EBF Pagamento</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\znacp005-Titulos criados agrupamento</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tdpur094-Tipos de ordem de compra</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\zncmg011-Tipos de transacao por tipo de pedido</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\zncmg007-Meios de pagamentos</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tcmcs066-Canais</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1007,6 +1040,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1434,9 +1468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1537,17 +1571,19 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1591,17 +1627,19 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1627,7 +1665,7 @@
       <c r="C14" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="1" t="s">
         <v>268</v>
       </c>
     </row>
@@ -1683,33 +1721,37 @@
       <c r="C18" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1739,17 +1781,19 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1765,29 +1809,33 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1803,17 +1851,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1885,17 +1935,19 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1925,41 +1977,47 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -2003,17 +2061,19 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -2029,17 +2089,19 @@
         <v>285</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -2069,17 +2131,19 @@
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -2095,17 +2159,19 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D50" s="5"/>
+      <c r="D50" s="5" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -3461,11 +3527,29 @@
     <hyperlink ref="C47" r:id="rId30"/>
     <hyperlink ref="C49" r:id="rId31"/>
     <hyperlink ref="C5" r:id="rId32"/>
+    <hyperlink ref="C8" r:id="rId33"/>
+    <hyperlink ref="C12" r:id="rId34"/>
+    <hyperlink ref="D12" r:id="rId35" display="tfacp002"/>
+    <hyperlink ref="C19" r:id="rId36"/>
+    <hyperlink ref="C37" r:id="rId37"/>
+    <hyperlink ref="C20" r:id="rId38"/>
+    <hyperlink ref="C38" r:id="rId39"/>
+    <hyperlink ref="C23" r:id="rId40"/>
+    <hyperlink ref="C48" r:id="rId41"/>
+    <hyperlink ref="C25" r:id="rId42"/>
+    <hyperlink ref="C50" r:id="rId43"/>
+    <hyperlink ref="C26" r:id="rId44"/>
+    <hyperlink ref="C28" r:id="rId45"/>
+    <hyperlink ref="C34" r:id="rId46"/>
+    <hyperlink ref="D34" r:id="rId47" display="tfacp002"/>
+    <hyperlink ref="C39" r:id="rId48"/>
+    <hyperlink ref="C43" r:id="rId49"/>
+    <hyperlink ref="C45" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
   <tableParts count="1">
-    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId52"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentação/Planilhas/Relatorios_LN.xlsx
+++ b/Documentação/Planilhas/Relatorios_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="305">
   <si>
     <t>/Relatorios/Contas Pagar/RelatorioPagamento</t>
   </si>
@@ -913,6 +913,24 @@
   </si>
   <si>
     <t>\Nova\Documentação\Tabelas_LN\tcmcs066-Canais</t>
+  </si>
+  <si>
+    <t>tdrec941</t>
+  </si>
+  <si>
+    <t>whinh300</t>
+  </si>
+  <si>
+    <t>tcemm122</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tdrec941-Linhas Doc Receb Fiscal</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\whinh300-Cabecalhos de ASN</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tcemm122-Parceiros de negocios</t>
   </si>
 </sst>
 </file>
@@ -1167,8 +1185,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:D182" totalsRowShown="0" tableBorderDxfId="4">
-  <autoFilter ref="A2:D182"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:D187" totalsRowShown="0" tableBorderDxfId="4">
+  <autoFilter ref="A2:D187"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Diretório no Reporting" dataDxfId="3"/>
     <tableColumn id="2" name="Nome do Relatório" dataDxfId="2"/>
@@ -1466,11 +1484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2173,1325 +2191,1399 @@
         <v>293</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="C51" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3545,11 +3637,17 @@
     <hyperlink ref="C39" r:id="rId48"/>
     <hyperlink ref="C43" r:id="rId49"/>
     <hyperlink ref="C45" r:id="rId50"/>
+    <hyperlink ref="C51" r:id="rId51"/>
+    <hyperlink ref="C52" r:id="rId52"/>
+    <hyperlink ref="C53" r:id="rId53"/>
+    <hyperlink ref="C54" r:id="rId54"/>
+    <hyperlink ref="C55" r:id="rId55"/>
+    <hyperlink ref="C56" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
   <tableParts count="1">
-    <tablePart r:id="rId52"/>
+    <tablePart r:id="rId58"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentação/Planilhas/Relatorios_LN.xlsx
+++ b/Documentação/Planilhas/Relatorios_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="327">
   <si>
     <t>/Relatorios/Contas Pagar/RelatorioPagamento</t>
   </si>
@@ -931,6 +931,72 @@
   </si>
   <si>
     <t>\Nova\Documentação\Tabelas_LN\tcemm122-Parceiros de negocios</t>
+  </si>
+  <si>
+    <t>ttaad200</t>
+  </si>
+  <si>
+    <t>tcemm124</t>
+  </si>
+  <si>
+    <t>tcemm030</t>
+  </si>
+  <si>
+    <t>cisli940</t>
+  </si>
+  <si>
+    <t>cisli941</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tcemm124-Departamentos</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tcemm030-Unid Empresariais</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\cisli940-Nota Fiscal</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\cisli941-Linhas Nota Fiscal</t>
+  </si>
+  <si>
+    <t>Dados do usuário *Tabela de Sessão.</t>
+  </si>
+  <si>
+    <t>cisli245</t>
+  </si>
+  <si>
+    <t>tdsls401</t>
+  </si>
+  <si>
+    <t>tdsls400</t>
+  </si>
+  <si>
+    <t>znnfe002</t>
+  </si>
+  <si>
+    <t>znmcs096</t>
+  </si>
+  <si>
+    <t>znmcs092</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\cisli245-Linhas faturas ordens vdas e armazem</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tdsls401-Linhas Ordem de Vendas</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tdsls400-Ordens de Venda</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\znnfe002-Log de Impressao da DANFE</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\znmcs092-Intermediaria Dados NF - Capa</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\znmcs096-Controle Processamento - Linha</t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1251,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:D187" totalsRowShown="0" tableBorderDxfId="4">
-  <autoFilter ref="A2:D187"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:D207" totalsRowShown="0" tableBorderDxfId="4">
+  <autoFilter ref="A2:D207"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Diretório no Reporting" dataDxfId="3"/>
     <tableColumn id="2" name="Nome do Relatório" dataDxfId="2"/>
@@ -1484,18 +1550,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="58.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -2275,1315 +2341,1603 @@
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="C57" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C66" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3643,11 +3997,31 @@
     <hyperlink ref="C54" r:id="rId54"/>
     <hyperlink ref="C55" r:id="rId55"/>
     <hyperlink ref="C56" r:id="rId56"/>
+    <hyperlink ref="C57" r:id="rId57"/>
+    <hyperlink ref="C59" r:id="rId58"/>
+    <hyperlink ref="C62" r:id="rId59"/>
+    <hyperlink ref="C63" r:id="rId60"/>
+    <hyperlink ref="C60" r:id="rId61"/>
+    <hyperlink ref="C61" r:id="rId62"/>
+    <hyperlink ref="C64" r:id="rId63"/>
+    <hyperlink ref="C65" r:id="rId64"/>
+    <hyperlink ref="C66" r:id="rId65"/>
+    <hyperlink ref="C70" r:id="rId66"/>
+    <hyperlink ref="C71" r:id="rId67"/>
+    <hyperlink ref="C72" r:id="rId68"/>
+    <hyperlink ref="C73" r:id="rId69"/>
+    <hyperlink ref="C74" r:id="rId70"/>
+    <hyperlink ref="C67" r:id="rId71"/>
+    <hyperlink ref="C68" r:id="rId72"/>
+    <hyperlink ref="C69" r:id="rId73"/>
+    <hyperlink ref="C75" r:id="rId74"/>
+    <hyperlink ref="C76" r:id="rId75"/>
+    <hyperlink ref="C77" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
   <tableParts count="1">
-    <tablePart r:id="rId58"/>
+    <tablePart r:id="rId78"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentação/Planilhas/Relatorios_LN.xlsx
+++ b/Documentação/Planilhas/Relatorios_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="342">
   <si>
     <t>/Relatorios/Contas Pagar/RelatorioPagamento</t>
   </si>
@@ -63,24 +63,9 @@
     <t>RelatorioUltimoPontoControle</t>
   </si>
   <si>
-    <t>/Relatorios/Logistica/RelatorioWMSQRY0180CFOPReserva</t>
-  </si>
-  <si>
     <t>RelatorioWMSQRY0180CFOPReserva</t>
   </si>
   <si>
-    <t>/Relatorios/Logistica/RelatorioWMSEstoqueValorPlantaFilialItensValor</t>
-  </si>
-  <si>
-    <t>RelatorioWMSEstoqueValorPlantaFilialItensValor</t>
-  </si>
-  <si>
-    <t>/Comercial Reports/rpt_casino_hora</t>
-  </si>
-  <si>
-    <t>rpt_casino_hora</t>
-  </si>
-  <si>
     <t>/Relatorios/Contas Pagar/RelatorioAprovacoesOrdemCompra</t>
   </si>
   <si>
@@ -997,6 +982,66 @@
   </si>
   <si>
     <t>\Nova\Documentação\Tabelas_LN\znmcs096-Controle Processamento - Linha</t>
+  </si>
+  <si>
+    <t>znsls410</t>
+  </si>
+  <si>
+    <t>znfmd630</t>
+  </si>
+  <si>
+    <t>tcmcs080</t>
+  </si>
+  <si>
+    <t>znfmd060</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\znsls410-Tracking Pedidos</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\znfmd630-TMS Ordens de Frete</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tcmcs080-Transportadoras LSP</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\znfmd060-Contrato de Transportes</t>
+  </si>
+  <si>
+    <t>tdpur401</t>
+  </si>
+  <si>
+    <t>tcibd001</t>
+  </si>
+  <si>
+    <t>tdpur450</t>
+  </si>
+  <si>
+    <t>tcmcs023</t>
+  </si>
+  <si>
+    <t>tcmcs065</t>
+  </si>
+  <si>
+    <t>tcmcs013</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tdpur401-Linhas Ordem de Compra</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tcibd001-Itens Geral</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tdpur450-Historico Ordens de Compra</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tcmcs023-Grupos de Itens</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tcmcs065-Departamentos</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tcmcs013-Condics pgto</t>
   </si>
 </sst>
 </file>
@@ -1251,8 +1296,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:D207" totalsRowShown="0" tableBorderDxfId="4">
-  <autoFilter ref="A2:D207"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:D228" totalsRowShown="0" tableBorderDxfId="4">
+  <autoFilter ref="A2:D228"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Diretório no Reporting" dataDxfId="3"/>
     <tableColumn id="2" name="Nome do Relatório" dataDxfId="2"/>
@@ -1550,39 +1595,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="52.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.7109375" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D1" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1593,10 +1638,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1607,10 +1652,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1621,10 +1666,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1635,10 +1680,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1649,10 +1694,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1663,10 +1708,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1677,10 +1722,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1691,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1705,10 +1750,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1719,10 +1764,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1733,10 +1778,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1747,10 +1792,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1761,10 +1806,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1775,10 +1820,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1789,10 +1834,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1803,10 +1848,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1817,10 +1862,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1831,10 +1876,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1845,10 +1890,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1859,10 +1904,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1873,10 +1918,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1887,10 +1932,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1901,10 +1946,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1915,10 +1960,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1929,10 +1974,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1943,10 +1988,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1957,10 +2002,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1971,10 +2016,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1985,10 +2030,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1999,10 +2044,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2013,10 +2058,10 @@
         <v>6</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2027,10 +2072,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2041,10 +2086,10 @@
         <v>6</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2055,10 +2100,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2069,10 +2114,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2083,10 +2128,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2097,10 +2142,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2111,10 +2156,10 @@
         <v>6</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2125,10 +2170,10 @@
         <v>6</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2139,10 +2184,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2153,10 +2198,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2167,10 +2212,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2181,10 +2226,10 @@
         <v>6</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2195,10 +2240,10 @@
         <v>6</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2209,10 +2254,10 @@
         <v>6</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2223,10 +2268,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2237,10 +2282,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2251,10 +2296,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2265,10 +2310,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2279,10 +2324,10 @@
         <v>8</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2293,10 +2338,10 @@
         <v>8</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2307,10 +2352,10 @@
         <v>8</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2321,10 +2366,10 @@
         <v>8</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2335,10 +2380,10 @@
         <v>8</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2349,10 +2394,10 @@
         <v>10</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2363,10 +2408,10 @@
         <v>10</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2377,10 +2422,10 @@
         <v>10</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2391,10 +2436,10 @@
         <v>10</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2405,10 +2450,10 @@
         <v>10</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2419,10 +2464,10 @@
         <v>10</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2433,10 +2478,10 @@
         <v>10</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2447,10 +2492,10 @@
         <v>10</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2461,10 +2506,10 @@
         <v>10</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2475,10 +2520,10 @@
         <v>12</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2489,10 +2534,10 @@
         <v>12</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2503,10 +2548,10 @@
         <v>12</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2517,10 +2562,10 @@
         <v>12</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2531,10 +2576,10 @@
         <v>12</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2545,10 +2590,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2559,10 +2604,10 @@
         <v>12</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2573,10 +2618,10 @@
         <v>12</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2587,10 +2632,10 @@
         <v>12</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2601,10 +2646,10 @@
         <v>12</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2615,10 +2660,10 @@
         <v>12</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2629,10 +2674,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2643,1301 +2688,1615 @@
         <v>12</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C79" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="B88" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C88" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>186</v>
+        <v>50</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4017,11 +4376,36 @@
     <hyperlink ref="C75" r:id="rId74"/>
     <hyperlink ref="C76" r:id="rId75"/>
     <hyperlink ref="C77" r:id="rId76"/>
+    <hyperlink ref="C80" r:id="rId77"/>
+    <hyperlink ref="C84" r:id="rId78"/>
+    <hyperlink ref="C85" r:id="rId79"/>
+    <hyperlink ref="C86" r:id="rId80"/>
+    <hyperlink ref="C87" r:id="rId81"/>
+    <hyperlink ref="C79" r:id="rId82"/>
+    <hyperlink ref="C81" r:id="rId83"/>
+    <hyperlink ref="C82" r:id="rId84"/>
+    <hyperlink ref="C83" r:id="rId85"/>
+    <hyperlink ref="C88" r:id="rId86"/>
+    <hyperlink ref="C91" r:id="rId87"/>
+    <hyperlink ref="C92" r:id="rId88"/>
+    <hyperlink ref="C93" r:id="rId89"/>
+    <hyperlink ref="C94" r:id="rId90"/>
+    <hyperlink ref="C95" r:id="rId91"/>
+    <hyperlink ref="C98" r:id="rId92"/>
+    <hyperlink ref="C99" r:id="rId93"/>
+    <hyperlink ref="C100" r:id="rId94"/>
+    <hyperlink ref="C101" r:id="rId95"/>
+    <hyperlink ref="C89" r:id="rId96"/>
+    <hyperlink ref="C90" r:id="rId97"/>
+    <hyperlink ref="C96" r:id="rId98"/>
+    <hyperlink ref="C102" r:id="rId99"/>
+    <hyperlink ref="C103" r:id="rId100"/>
+    <hyperlink ref="C104" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId102"/>
   <tableParts count="1">
-    <tablePart r:id="rId78"/>
+    <tablePart r:id="rId103"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentação/Planilhas/Relatorios_LN.xlsx
+++ b/Documentação/Planilhas/Relatorios_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="344">
   <si>
     <t>/Relatorios/Contas Pagar/RelatorioPagamento</t>
   </si>
@@ -1042,6 +1042,12 @@
   </si>
   <si>
     <t>\Nova\Documentação\Tabelas_LN\tcmcs013-Condics pgto</t>
+  </si>
+  <si>
+    <t>tcmcs940</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tcmcs940-Codigo Fiscal de operacoes e prestacoes - CFOP</t>
   </si>
 </sst>
 </file>
@@ -1296,8 +1302,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:D228" totalsRowShown="0" tableBorderDxfId="4">
-  <autoFilter ref="A2:D228"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:D238" totalsRowShown="0" tableBorderDxfId="4">
+  <autoFilter ref="A2:D238"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Diretório no Reporting" dataDxfId="3"/>
     <tableColumn id="2" name="Nome do Relatório" dataDxfId="2"/>
@@ -1595,11 +1601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D228"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3058,919 +3064,963 @@
         <v>341</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C105" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>172</v>
@@ -3980,323 +4030,423 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>228</v>
+        <v>2</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4401,11 +4551,22 @@
     <hyperlink ref="C102" r:id="rId99"/>
     <hyperlink ref="C103" r:id="rId100"/>
     <hyperlink ref="C104" r:id="rId101"/>
+    <hyperlink ref="C105" r:id="rId102"/>
+    <hyperlink ref="C106" r:id="rId103"/>
+    <hyperlink ref="C107" r:id="rId104"/>
+    <hyperlink ref="C109" r:id="rId105"/>
+    <hyperlink ref="C110" r:id="rId106"/>
+    <hyperlink ref="C111" r:id="rId107"/>
+    <hyperlink ref="C112" r:id="rId108"/>
+    <hyperlink ref="C113" r:id="rId109"/>
+    <hyperlink ref="C114" r:id="rId110"/>
+    <hyperlink ref="C115" r:id="rId111"/>
+    <hyperlink ref="C108" r:id="rId112"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId102"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId113"/>
   <tableParts count="1">
-    <tablePart r:id="rId103"/>
+    <tablePart r:id="rId114"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentação/Planilhas/Relatorios_LN.xlsx
+++ b/Documentação/Planilhas/Relatorios_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="348">
   <si>
     <t>/Relatorios/Contas Pagar/RelatorioPagamento</t>
   </si>
@@ -84,12 +84,6 @@
     <t>RelatorioCancelamento</t>
   </si>
   <si>
-    <t>/Comercial Reports/rpt_flash_b2b_BF</t>
-  </si>
-  <si>
-    <t>rpt_flash_b2b_BF</t>
-  </si>
-  <si>
     <t>/Relatorios/Logistica/RelatorioSIGEQ0150Estoque</t>
   </si>
   <si>
@@ -1048,6 +1042,24 @@
   </si>
   <si>
     <t>\Nova\Documentação\Tabelas_LN\tcmcs940-Codigo Fiscal de operacoes e prestacoes - CFOP</t>
+  </si>
+  <si>
+    <t>zncmg015</t>
+  </si>
+  <si>
+    <t>zncmg009</t>
+  </si>
+  <si>
+    <t>zncmg008</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\zncmg015-Cancelamentos Cartao Credito</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\zncmg009-Bandeiras Cartao Credito</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\zncmg008-Adquirentes Cartao Credito</t>
   </si>
 </sst>
 </file>
@@ -1302,8 +1314,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:D238" totalsRowShown="0" tableBorderDxfId="4">
-  <autoFilter ref="A2:D238"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:D242" totalsRowShown="0" tableBorderDxfId="4">
+  <autoFilter ref="A2:D242"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Diretório no Reporting" dataDxfId="3"/>
     <tableColumn id="2" name="Nome do Relatório" dataDxfId="2"/>
@@ -1601,11 +1613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D238"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
+      <pane ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1619,21 +1631,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D1" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1644,10 +1656,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1658,10 +1670,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1672,10 +1684,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1686,10 +1698,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1700,10 +1712,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1714,10 +1726,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1728,10 +1740,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1742,10 +1754,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1756,10 +1768,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1770,10 +1782,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1784,10 +1796,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1798,10 +1810,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1812,10 +1824,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1826,10 +1838,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1840,10 +1852,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1854,10 +1866,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1868,10 +1880,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1882,10 +1894,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1896,10 +1908,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1910,10 +1922,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1924,10 +1936,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1938,10 +1950,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1952,10 +1964,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1966,10 +1978,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1980,10 +1992,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1994,10 +2006,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2008,10 +2020,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2022,10 +2034,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2036,10 +2048,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2050,10 +2062,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2064,10 +2076,10 @@
         <v>6</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2078,10 +2090,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2092,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2106,10 +2118,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2120,10 +2132,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2134,10 +2146,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2148,10 +2160,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2162,10 +2174,10 @@
         <v>6</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2176,10 +2188,10 @@
         <v>6</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2190,10 +2202,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2204,10 +2216,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2218,10 +2230,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2232,10 +2244,10 @@
         <v>6</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2246,10 +2258,10 @@
         <v>6</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2260,10 +2272,10 @@
         <v>6</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2274,10 +2286,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2288,10 +2300,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2302,10 +2314,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2316,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2330,10 +2342,10 @@
         <v>8</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2344,10 +2356,10 @@
         <v>8</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2358,10 +2370,10 @@
         <v>8</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2372,10 +2384,10 @@
         <v>8</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2386,10 +2398,10 @@
         <v>8</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2400,10 +2412,10 @@
         <v>10</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2414,10 +2426,10 @@
         <v>10</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2428,10 +2440,10 @@
         <v>10</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2442,10 +2454,10 @@
         <v>10</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2456,10 +2468,10 @@
         <v>10</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2470,10 +2482,10 @@
         <v>10</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2484,10 +2496,10 @@
         <v>10</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2498,10 +2510,10 @@
         <v>10</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2512,10 +2524,10 @@
         <v>10</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2526,10 +2538,10 @@
         <v>12</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2540,10 +2552,10 @@
         <v>12</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2554,10 +2566,10 @@
         <v>12</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2568,10 +2580,10 @@
         <v>12</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2582,10 +2594,10 @@
         <v>12</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2596,10 +2608,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2610,10 +2622,10 @@
         <v>12</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2624,10 +2636,10 @@
         <v>12</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2638,10 +2650,10 @@
         <v>12</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2652,10 +2664,10 @@
         <v>12</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2666,10 +2678,10 @@
         <v>12</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2680,10 +2692,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2694,10 +2706,10 @@
         <v>12</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2708,10 +2720,10 @@
         <v>14</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2722,10 +2734,10 @@
         <v>14</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2736,10 +2748,10 @@
         <v>14</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2750,10 +2762,10 @@
         <v>14</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2764,10 +2776,10 @@
         <v>14</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2778,10 +2790,10 @@
         <v>14</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2792,10 +2804,10 @@
         <v>14</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2806,10 +2818,10 @@
         <v>14</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2820,10 +2832,10 @@
         <v>14</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2834,10 +2846,10 @@
         <v>17</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2848,10 +2860,10 @@
         <v>17</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2862,10 +2874,10 @@
         <v>17</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2876,10 +2888,10 @@
         <v>17</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2890,10 +2902,10 @@
         <v>17</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2904,10 +2916,10 @@
         <v>17</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2918,10 +2930,10 @@
         <v>17</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2932,10 +2944,10 @@
         <v>17</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2946,10 +2958,10 @@
         <v>17</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2960,10 +2972,10 @@
         <v>17</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2974,10 +2986,10 @@
         <v>17</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2988,10 +3000,10 @@
         <v>17</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3002,10 +3014,10 @@
         <v>17</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3016,10 +3028,10 @@
         <v>17</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3030,10 +3042,10 @@
         <v>17</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3044,10 +3056,10 @@
         <v>17</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3058,10 +3070,10 @@
         <v>17</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3072,10 +3084,10 @@
         <v>19</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3086,10 +3098,10 @@
         <v>19</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3100,10 +3112,10 @@
         <v>19</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3114,10 +3126,10 @@
         <v>19</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3128,10 +3140,10 @@
         <v>19</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3142,10 +3154,10 @@
         <v>19</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3156,10 +3168,10 @@
         <v>19</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3170,10 +3182,10 @@
         <v>19</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3184,10 +3196,10 @@
         <v>19</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3198,10 +3210,10 @@
         <v>19</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3212,1241 +3224,1305 @@
         <v>19</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C116" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>228</v>
+        <v>15</v>
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4562,11 +4638,17 @@
     <hyperlink ref="C114" r:id="rId110"/>
     <hyperlink ref="C115" r:id="rId111"/>
     <hyperlink ref="C108" r:id="rId112"/>
+    <hyperlink ref="C116" r:id="rId113"/>
+    <hyperlink ref="C118" r:id="rId114"/>
+    <hyperlink ref="C121" r:id="rId115"/>
+    <hyperlink ref="C117" r:id="rId116"/>
+    <hyperlink ref="C119" r:id="rId117"/>
+    <hyperlink ref="C120" r:id="rId118"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId113"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId119"/>
   <tableParts count="1">
-    <tablePart r:id="rId114"/>
+    <tablePart r:id="rId120"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentação/Planilhas/Relatorios_LN.xlsx
+++ b/Documentação/Planilhas/Relatorios_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="374">
   <si>
     <t>/Relatorios/Contas Pagar/RelatorioPagamento</t>
   </si>
@@ -1060,6 +1060,84 @@
   </si>
   <si>
     <t>\Nova\Documentação\Tabelas_LN\zncmg008-Adquirentes Cartao Credito</t>
+  </si>
+  <si>
+    <t>whinr140</t>
+  </si>
+  <si>
+    <t>whwmd400</t>
+  </si>
+  <si>
+    <t>whinp100</t>
+  </si>
+  <si>
+    <t>tdipu001</t>
+  </si>
+  <si>
+    <t>tcemm112</t>
+  </si>
+  <si>
+    <t>tcmcs003</t>
+  </si>
+  <si>
+    <t>whwmd217</t>
+  </si>
+  <si>
+    <t>whwmd630</t>
+  </si>
+  <si>
+    <t>tcmcs095</t>
+  </si>
+  <si>
+    <t>whinh220</t>
+  </si>
+  <si>
+    <t>znmcs030</t>
+  </si>
+  <si>
+    <t>znmcs031</t>
+  </si>
+  <si>
+    <t>znmcs032</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\whinr140-Inventario</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\whwmd400-Dados armazenamento de item</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\whinp100-Transacoes de inventario planejado por item</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tdipu001-Dados item de compra</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tcemm112-Armazem</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tcmcs003-Armazens</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\whwmd217-Inventario item por detalhes custo armazém</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\whwmd630-Bloqueios por Ponto de Estoque</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\tcmcs095-Parametros</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\whinh220-Linhas da ordem de saída</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\znmcs030-Setor</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\znmcs031-Família</t>
+  </si>
+  <si>
+    <t>\Nova\Documentação\Tabelas_LN\znmcs032-Sub-Família</t>
   </si>
 </sst>
 </file>
@@ -1314,8 +1392,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:D242" totalsRowShown="0" tableBorderDxfId="4">
-  <autoFilter ref="A2:D242"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:D259" totalsRowShown="0" tableBorderDxfId="4">
+  <autoFilter ref="A2:D259"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Diretório no Reporting" dataDxfId="3"/>
     <tableColumn id="2" name="Nome do Relatório" dataDxfId="2"/>
@@ -1613,18 +1691,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:D259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
+      <pane ySplit="2" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73.7109375" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -3314,809 +3392,881 @@
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C122" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C131" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>141</v>
@@ -4126,403 +4276,573 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4644,11 +4964,29 @@
     <hyperlink ref="C117" r:id="rId116"/>
     <hyperlink ref="C119" r:id="rId117"/>
     <hyperlink ref="C120" r:id="rId118"/>
+    <hyperlink ref="C122" r:id="rId119"/>
+    <hyperlink ref="C123" r:id="rId120"/>
+    <hyperlink ref="C124" r:id="rId121"/>
+    <hyperlink ref="C125" r:id="rId122"/>
+    <hyperlink ref="C126" r:id="rId123"/>
+    <hyperlink ref="C127" r:id="rId124"/>
+    <hyperlink ref="C128" r:id="rId125"/>
+    <hyperlink ref="C129" r:id="rId126"/>
+    <hyperlink ref="C130" r:id="rId127"/>
+    <hyperlink ref="C131" r:id="rId128"/>
+    <hyperlink ref="C132" r:id="rId129"/>
+    <hyperlink ref="C133" r:id="rId130"/>
+    <hyperlink ref="C134" r:id="rId131"/>
+    <hyperlink ref="C135" r:id="rId132"/>
+    <hyperlink ref="C136" r:id="rId133"/>
+    <hyperlink ref="C137" r:id="rId134"/>
+    <hyperlink ref="C138" r:id="rId135"/>
+    <hyperlink ref="C139" r:id="rId136"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId119"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId137"/>
   <tableParts count="1">
-    <tablePart r:id="rId120"/>
+    <tablePart r:id="rId138"/>
   </tableParts>
 </worksheet>
 </file>
